--- a/Netbeans/ANA-ADDIX/output/data_storage/engadget.xlsx
+++ b/Netbeans/ANA-ADDIX/output/data_storage/engadget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\ANA\ANA_2020\ANA-VIETNAM\Netbeans\ANA-ADDIX\output\data_storge\backup\Data_storage_empty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\Sources\11. ChangeCodeANA\ANA-VIETNAM\Netbeans\ANA-ADDIX\output\data_storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2700BAB-E002-414B-A944-E9BB689ADCCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF1D873-FF3A-40A5-BCA4-F1AAA397D4CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="932" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="932" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AI" sheetId="1" r:id="rId1"/>
@@ -37,12 +37,453 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="149">
   <si>
     <t>Url</t>
   </si>
   <si>
     <t>url_articles</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/latest-reviews/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/videos/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/series/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/special/greenfunding/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/01/29/pub/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/pr/engadget2019/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/search?q=AI#</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/12/04/snapdragon-865-7gbps-5g-2/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/12/04/echo-studio/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/12/04/jr-startup_station/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/12/03/alphabet-ceo-google/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/12/03/1-mi-note-10/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/12/03/snapdragon-865-765-20/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/12/03/jr-qr-2020/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/12/03/ai-aws-deepcomposer/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/12/03/seeing-ai/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/12/02/ana-1/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/18/iot-5g/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/10/google-fitbit/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/search?q=%E3%83%8F%E3%83%97%E3%83%86%E3%82%A3%E3%82%AF%E3%82%B9#</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2018/09/13/iphone-xs-xs-max-xr-apple-watch-series-4/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2018/06/06/iphone-watchos-5-apple-watch/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2018/01/08/ces-2018-3/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/search?q=%E3%83%AD%E3%83%9C%E3%83%86%E3%82%A3%E3%82%AF%E3%82%B9#</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/09/22/nasa/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/09/03/lovot-1-9-4/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/07/23/GroundVehicle/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/07/17/ces-2020/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/06/30/dji-robomaster-s1/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/06/08/6-9-nuans-neo-reloaded-boston-dynamics/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/06/05/amazon/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/05/09/ces-2019/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/04/16/pepper-7/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/04/11/18-nasa/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/search?q=%E3%83%AD%E3%83%9C%E3%83%83%E3%83%88#</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/12/05/style-e17-led/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/12/03/2d-connect-and-break/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/12/03/oppo/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/27/apple-mirror/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/26/boston-dynamics-spot/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/25/esa-iss/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/21/shibuya-mewtwo/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/20/everyone-can-code/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/search?q=%E8%A7%A6%E8%A6%9A#</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/12/04/garageband-iphone-tips/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/29/iphone-ipod-classic/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/10/15/ana-avatar-in-2020-ceatec/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/10/11/pixelbook-go/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/10/04/tech-vol-1/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/09/24/google-pixelbook-go-13-3-4k/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/09/19/watchos-6-app-store/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/09/16/vision-mercedes-simplex-concept-car/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/09/11/ethz/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/09/10/iphone-11-xr-wifi-6/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/search?q=%E9%81%A0%E9%9A%94%E6%93%8D%E4%BD%9C#</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/22/amazon-black-friday-alexa/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/17/xperia-1-professional-edition-2/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/15/fobase/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/09/ar-valve-iphone-se2/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/01/weekly-topics-airpods-pro-dji-199g/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/10/30/volocopter-volodrone-200kg/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/10/21/sonar/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/10/19/1-3way-lkker-air-mouse/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/search?q=%E9%81%A0%E9%9A%94%E4%BC%9A%E8%AD%B0#</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/13/mac-16-macbook-pro-t2/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/08/22/gf117-4k-ordro-ep6/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/08/11/tv-lotr-egjp-177/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/04/24/gf032-pc-quickshare-6-10/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/02/12/5/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2018/08/07/google-jamboard/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2018/05/10/4-kddi/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/search?q=%E9%81%A0%E9%9A%94%E5%8C%BB%E7%99%82#</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/12/04/2019-5g/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/09/14/5g-tgs2019/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/08/29/5g/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/08/21/gf115-9/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/07/24/au-5g-21/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/06/02/5g-engadget-meetup-feat-techcrunch/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/04/09/5g-2020/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/search?q=%E5%AE%87%E5%AE%99#</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/12/03/nasa/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/29/no-mans-sky-synthesis-qol/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/28/ar-360/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/27/2/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/26/12-26/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/25/100/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/21/spacex-starship-150m/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/19/nasa-2020/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/19/1-24-gustave-cie-24h-watch/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/search?q=%E5%8C%BB%E7%99%82#</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/12/03/amazon-transcribe-medical/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/24/apple-watch-79/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/19/12-12/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/16/iphone-apple-watch/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/12/google/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/11/apple-card/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/search?q=MR#</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/09/12/htc-vr-vive-cosmos-9-10-11/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/08/30/microsoft-hololens-2-9/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/08/26/au/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/08/13/gf109-180-mark-ryden-bag2-0/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/08/10/go-ar/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/07/29/vr-vaqso/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/07/12/ar-vr/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/06/12/2/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/05/22/5-23-acer-windows-mixed-reality-headset/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/search?q=VR#</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/12/03/adobe-max-japan-2019-photoshop-illustrator/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/27/xbox-vr/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/27/facebook-beat-saber-oculus/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/26/vr/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/26/kddi-ar/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/25/amazon-11-26-d3500-p1000-nikon/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/search?q=%E3%83%87%E3%82%B8%E3%82%BF%E3%83%AB%E3%82%B5%E3%82%A4%E3%83%8D%E3%83%BC%E3%82%B8#</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/21/dooh/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/20/1-chargespot-12-3/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/06/chargespot/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/10/10/lg-le/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/08/07/jr-12/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/03/04/looking-glass-makuake/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/search?q=%E5%BB%BA%E8%A8%AD#</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/22/mac-pro/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/20/mac-pro-mac-pro-2013/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/18/airbnb/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/13/ceo-mac-pro/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/07/rakuten/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/05/rakuten/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/10/30/hbo-house-of-the-dragon-got-300/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/search?q=ANA%20AVATAR#</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/search?q=VR%E5%BA%83%E5%91%8A#</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/08/04/engadget/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/pr/summer-fes2/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/03/26/news-card-arcade-tv-apple/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/01/13/2019-ces-vr-holoride/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2018/08/02/go-ar/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2018/07/20/lenovo/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2018/07/02/handy/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2018/02/15/galaxy-studio-galaxy-note8/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2018/02/15/engadget/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/search?q=%E3%82%B7%E3%82%A7%E3%82%A2%E3%83%AA%E3%83%B3%E3%82%B0%E3%82%A8%E3%82%B3%E3%83%8E%E3%83%9F%E3%83%BC#</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/04/it/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/11/01/uber-money/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/09/18/ridenow-1/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2019/03/28/oyo-life/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2018/12/02/akippa/</t>
+  </si>
+  <si>
+    <t>https://japanese.engadget.com/2018/06/25/paypal/</t>
   </si>
 </sst>
 </file>
@@ -426,15 +867,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD706"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -445,6 +886,96 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -455,7 +986,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD77"/>
@@ -463,7 +994,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -474,6 +1005,96 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -483,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD140"/>
@@ -491,7 +1112,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -502,6 +1123,96 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -511,7 +1222,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD65"/>
@@ -519,7 +1230,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -530,6 +1241,96 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -539,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD85"/>
@@ -547,7 +1348,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -558,6 +1359,96 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -567,7 +1458,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD33"/>
@@ -575,7 +1466,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -586,6 +1477,96 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +1576,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD93"/>
@@ -603,7 +1584,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -614,6 +1595,96 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +1694,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
@@ -631,7 +1702,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -642,6 +1713,51 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -651,15 +1767,15 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD22"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -670,6 +1786,76 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -679,13 +1865,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -696,6 +1882,96 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -705,15 +1981,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD154"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -724,6 +2000,11 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -733,7 +2014,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD7"/>
@@ -741,7 +2022,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -752,6 +2033,61 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -761,7 +2097,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD35"/>
@@ -769,7 +2105,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -780,6 +2116,96 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -789,7 +2215,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD190"/>
@@ -797,7 +2223,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -808,6 +2234,96 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +2333,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD31"/>
@@ -825,7 +2341,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -836,6 +2352,96 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -845,7 +2451,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD56"/>
@@ -853,7 +2459,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -864,6 +2470,96 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -873,13 +2569,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -890,6 +2586,91 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -899,7 +2680,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD26"/>
@@ -907,7 +2688,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -920,6 +2701,96 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
